--- a/app/tables/tabla_spline.xlsx
+++ b/app/tables/tabla_spline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,66 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>0.545454545454545</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>3.27272727272727</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2.27272727272727</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>-0.465909090909091</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.238636363636363</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.965909090909091</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.26136363636364</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0.193181818181818</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-1.73863636363636</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2.94318181818182</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.602272727272728</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_spline.xlsx
+++ b/app/tables/tabla_spline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,88 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.0290697674418602</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0.0872093023255806</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1.02906976744186</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.91279069767442</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.406976744186044</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-3.83720930232556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12.8023255813953</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-10.860465116279</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>-0.686046511627902</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9.27906976744179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-39.6627906976741</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.0930232558135</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.337209302325578</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-6.0697674418604</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37.0813953488368</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-68.8139534883714</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_spline.xlsx
+++ b/app/tables/tabla_spline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,88 +436,36 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>-0.0290697674418602</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0.0872093023255806</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1.02906976744186</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>0.91279069767442</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.406976744186044</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-3.83720930232556</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12.8023255813953</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-10.860465116279</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-0.686046511627902</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9.27906976744179</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-39.6627906976741</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>59.0930232558135</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0.337209302325578</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-6.0697674418604</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>37.0813953488368</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-68.8139534883714</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
